--- a/data/pca/factorExposure/factorExposure_2009-10-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0120000929463414</v>
+        <v>-0.01685916595655501</v>
       </c>
       <c r="C2">
-        <v>-0.002199847313495293</v>
+        <v>-0.0008902881769049327</v>
       </c>
       <c r="D2">
-        <v>0.006160313650862822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00885904744478057</v>
+      </c>
+      <c r="E2">
+        <v>0.001690000513467686</v>
+      </c>
+      <c r="F2">
+        <v>-0.01206678260800895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1076209975889085</v>
+        <v>-0.09354939076762667</v>
       </c>
       <c r="C4">
-        <v>-0.01639147459487976</v>
+        <v>-0.01436195062298656</v>
       </c>
       <c r="D4">
-        <v>0.06180694908200112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08400936925839306</v>
+      </c>
+      <c r="E4">
+        <v>0.02860341075928461</v>
+      </c>
+      <c r="F4">
+        <v>0.03214795321797864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1427635171273771</v>
+        <v>-0.1586843000929262</v>
       </c>
       <c r="C6">
-        <v>-0.0223226286137502</v>
+        <v>-0.02613178796195473</v>
       </c>
       <c r="D6">
-        <v>-0.0219718086418452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02273318671695757</v>
+      </c>
+      <c r="E6">
+        <v>0.01028334725926934</v>
+      </c>
+      <c r="F6">
+        <v>0.04405044450519057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07153501899335514</v>
+        <v>-0.0634630925732954</v>
       </c>
       <c r="C7">
-        <v>-0.0004581159263721408</v>
+        <v>0.001760583862079682</v>
       </c>
       <c r="D7">
-        <v>0.0356935707337998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05311893506700331</v>
+      </c>
+      <c r="E7">
+        <v>0.01201167704964399</v>
+      </c>
+      <c r="F7">
+        <v>0.04758932184985806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06173560275535009</v>
+        <v>-0.05714255965077661</v>
       </c>
       <c r="C8">
-        <v>0.01183822400373207</v>
+        <v>0.0135232315695162</v>
       </c>
       <c r="D8">
-        <v>0.01283828160861812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03273111096852344</v>
+      </c>
+      <c r="E8">
+        <v>0.01793882065884123</v>
+      </c>
+      <c r="F8">
+        <v>-0.02736452570617013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08217214447196071</v>
+        <v>-0.07088126556187394</v>
       </c>
       <c r="C9">
-        <v>-0.01418488611244728</v>
+        <v>-0.01021336920690588</v>
       </c>
       <c r="D9">
-        <v>0.06577864024807976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08668437967031703</v>
+      </c>
+      <c r="E9">
+        <v>0.02353937126373943</v>
+      </c>
+      <c r="F9">
+        <v>0.04771294132639423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.076244573420281</v>
+        <v>-0.09272748005821012</v>
       </c>
       <c r="C10">
-        <v>-0.009492714440518553</v>
+        <v>-0.02107571638278342</v>
       </c>
       <c r="D10">
-        <v>-0.1590431530084517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1655266931925118</v>
+      </c>
+      <c r="E10">
+        <v>-0.03295689816685386</v>
+      </c>
+      <c r="F10">
+        <v>-0.05527937607478522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09637888885937419</v>
+        <v>-0.08795406928408205</v>
       </c>
       <c r="C11">
-        <v>-0.01392295395169776</v>
+        <v>-0.01010946476798223</v>
       </c>
       <c r="D11">
-        <v>0.09594193960361529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1174863196936426</v>
+      </c>
+      <c r="E11">
+        <v>0.04651131598183142</v>
+      </c>
+      <c r="F11">
+        <v>0.02326392366547833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1030175814335761</v>
+        <v>-0.09196025662600703</v>
       </c>
       <c r="C12">
-        <v>-0.01250215702489052</v>
+        <v>-0.007494606785281912</v>
       </c>
       <c r="D12">
-        <v>0.09626805533327128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1323772535375579</v>
+      </c>
+      <c r="E12">
+        <v>0.0468364195285186</v>
+      </c>
+      <c r="F12">
+        <v>0.02915448422356059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04223619887951029</v>
+        <v>-0.04167024879812072</v>
       </c>
       <c r="C13">
-        <v>-0.004875618242653733</v>
+        <v>-0.002441706250850881</v>
       </c>
       <c r="D13">
-        <v>0.0376306538718408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0534981822012127</v>
+      </c>
+      <c r="E13">
+        <v>-0.004680067567933569</v>
+      </c>
+      <c r="F13">
+        <v>0.0006645835496208694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02037084678621718</v>
+        <v>-0.0241335957777799</v>
       </c>
       <c r="C14">
-        <v>-0.01539495653082613</v>
+        <v>-0.01381708055649048</v>
       </c>
       <c r="D14">
-        <v>0.02547348359971709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03277081041982099</v>
+      </c>
+      <c r="E14">
+        <v>0.01886287238738986</v>
+      </c>
+      <c r="F14">
+        <v>0.01298000227507074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0371708562826953</v>
+        <v>-0.03262736637764575</v>
       </c>
       <c r="C15">
-        <v>-0.006472660400582325</v>
+        <v>-0.004527141655351987</v>
       </c>
       <c r="D15">
-        <v>0.02231004664433934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04473192994720801</v>
+      </c>
+      <c r="E15">
+        <v>0.005860916400802349</v>
+      </c>
+      <c r="F15">
+        <v>0.02445122254164658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0814069285477704</v>
+        <v>-0.0742280793442454</v>
       </c>
       <c r="C16">
-        <v>-0.006064480467182169</v>
+        <v>-0.0007516826532526173</v>
       </c>
       <c r="D16">
-        <v>0.09443798370827985</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1278873525792014</v>
+      </c>
+      <c r="E16">
+        <v>0.0613216595055795</v>
+      </c>
+      <c r="F16">
+        <v>0.02728224945543682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0006292841880829877</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001775125562037213</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001140085844611109</v>
+      </c>
+      <c r="E17">
+        <v>0.0007744861905610559</v>
+      </c>
+      <c r="F17">
+        <v>-0.001118375472206886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.00206487369141034</v>
+        <v>-0.03601121461488777</v>
       </c>
       <c r="C18">
-        <v>0.0009547971747207503</v>
+        <v>0.003069016143746911</v>
       </c>
       <c r="D18">
-        <v>0.005047191896388394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01615821558082999</v>
+      </c>
+      <c r="E18">
+        <v>-0.009295415383543228</v>
+      </c>
+      <c r="F18">
+        <v>-0.008980529570582768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06455259796607217</v>
+        <v>-0.06168198980855412</v>
       </c>
       <c r="C20">
-        <v>-0.004820836799775591</v>
+        <v>0.0001046114616957835</v>
       </c>
       <c r="D20">
-        <v>0.03891323715753037</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07808007752495685</v>
+      </c>
+      <c r="E20">
+        <v>0.05666385993525012</v>
+      </c>
+      <c r="F20">
+        <v>0.02525429991819499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0460726076629069</v>
+        <v>-0.04062776606414199</v>
       </c>
       <c r="C21">
-        <v>-0.009069315439782066</v>
+        <v>-0.006343579226120263</v>
       </c>
       <c r="D21">
-        <v>0.0135768494011113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03797898009633534</v>
+      </c>
+      <c r="E21">
+        <v>-0.00182417188850579</v>
+      </c>
+      <c r="F21">
+        <v>-0.02556515201100711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03339102616749721</v>
+        <v>-0.0433488432188569</v>
       </c>
       <c r="C22">
-        <v>3.899719543020294e-05</v>
+        <v>-0.0004230327412451587</v>
       </c>
       <c r="D22">
-        <v>-0.01985509300871201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00655967257881025</v>
+      </c>
+      <c r="E22">
+        <v>0.03478468843397974</v>
+      </c>
+      <c r="F22">
+        <v>-0.0376456553011352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03334629813362171</v>
+        <v>-0.04332477448008889</v>
       </c>
       <c r="C23">
-        <v>4.617555039653535e-05</v>
+        <v>-0.0004146924333615937</v>
       </c>
       <c r="D23">
-        <v>-0.01984192504424099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006575078032785586</v>
+      </c>
+      <c r="E23">
+        <v>0.03496739720439548</v>
+      </c>
+      <c r="F23">
+        <v>-0.03760889698700506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08819757296132957</v>
+        <v>-0.07980699736376816</v>
       </c>
       <c r="C24">
-        <v>-0.005877657009151917</v>
+        <v>-0.001363650288774329</v>
       </c>
       <c r="D24">
-        <v>0.1033397184143128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1218723387383985</v>
+      </c>
+      <c r="E24">
+        <v>0.04929720931342584</v>
+      </c>
+      <c r="F24">
+        <v>0.02777926133525459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09405831047233865</v>
+        <v>-0.08531224071023359</v>
       </c>
       <c r="C25">
-        <v>-0.008222002950190824</v>
+        <v>-0.00417681218558547</v>
       </c>
       <c r="D25">
-        <v>0.09181183287479744</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095946517961391</v>
+      </c>
+      <c r="E25">
+        <v>0.0325766551562315</v>
+      </c>
+      <c r="F25">
+        <v>0.02792223010932787</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05820132713549488</v>
+        <v>-0.05881867017112875</v>
       </c>
       <c r="C26">
-        <v>-0.01738841318168164</v>
+        <v>-0.01424404800102892</v>
       </c>
       <c r="D26">
-        <v>0.01472028096720385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0412228002065318</v>
+      </c>
+      <c r="E26">
+        <v>0.02875777009006325</v>
+      </c>
+      <c r="F26">
+        <v>-0.006578312979275819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1331411940577154</v>
+        <v>-0.1429146815627505</v>
       </c>
       <c r="C28">
-        <v>-0.004353284609392108</v>
+        <v>-0.02211624296639614</v>
       </c>
       <c r="D28">
-        <v>-0.2733084653883046</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2608171900116711</v>
+      </c>
+      <c r="E28">
+        <v>-0.06710325386584219</v>
+      </c>
+      <c r="F28">
+        <v>0.007905778288926191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02458277208066328</v>
+        <v>-0.02868061612952744</v>
       </c>
       <c r="C29">
-        <v>-0.009823818454464124</v>
+        <v>-0.008662398668843151</v>
       </c>
       <c r="D29">
-        <v>0.01945332097029299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03108014077983955</v>
+      </c>
+      <c r="E29">
+        <v>0.01393919179472227</v>
+      </c>
+      <c r="F29">
+        <v>-0.01331757800059236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07986756773868188</v>
+        <v>-0.05916912217694947</v>
       </c>
       <c r="C30">
-        <v>-0.005047098464561442</v>
+        <v>-0.002458153958534726</v>
       </c>
       <c r="D30">
-        <v>0.06342362933420673</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08984463208753685</v>
+      </c>
+      <c r="E30">
+        <v>0.01619221301291532</v>
+      </c>
+      <c r="F30">
+        <v>0.07826672773089215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04874513084815272</v>
+        <v>-0.05093855410203699</v>
       </c>
       <c r="C31">
-        <v>-0.01525074432297479</v>
+        <v>-0.01530399388676526</v>
       </c>
       <c r="D31">
-        <v>0.02029118409827288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02507584957040193</v>
+      </c>
+      <c r="E31">
+        <v>0.02858693572129139</v>
+      </c>
+      <c r="F31">
+        <v>-0.00121884545137662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0488674000003966</v>
+        <v>-0.05129876441134144</v>
       </c>
       <c r="C32">
-        <v>-0.0005180621252268861</v>
+        <v>0.001895025622945801</v>
       </c>
       <c r="D32">
-        <v>0.0158948383228434</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03544373608810362</v>
+      </c>
+      <c r="E32">
+        <v>0.03355020889493981</v>
+      </c>
+      <c r="F32">
+        <v>0.003369309135299392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.1022859075582408</v>
+        <v>-0.0892292413840117</v>
       </c>
       <c r="C33">
-        <v>-0.009647475996872464</v>
+        <v>-0.006579090287204371</v>
       </c>
       <c r="D33">
-        <v>0.06824871836108565</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1013153728920324</v>
+      </c>
+      <c r="E33">
+        <v>0.04398539606697666</v>
+      </c>
+      <c r="F33">
+        <v>0.03717385330727576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07825847913794003</v>
+        <v>-0.06779771560921141</v>
       </c>
       <c r="C34">
-        <v>-0.01299006375564008</v>
+        <v>-0.009866538748632688</v>
       </c>
       <c r="D34">
-        <v>0.08915884728407629</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1097507537531645</v>
+      </c>
+      <c r="E34">
+        <v>0.03493914894575546</v>
+      </c>
+      <c r="F34">
+        <v>0.03388358356171974</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02221581219465033</v>
+        <v>-0.02498976466689246</v>
       </c>
       <c r="C35">
-        <v>-0.001911328726741495</v>
+        <v>-0.00247684772504931</v>
       </c>
       <c r="D35">
-        <v>0.0004717217769420176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01126094695127829</v>
+      </c>
+      <c r="E35">
+        <v>0.01179103184739087</v>
+      </c>
+      <c r="F35">
+        <v>0.0008432086708239142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01890492167018073</v>
+        <v>-0.02769817023791515</v>
       </c>
       <c r="C36">
-        <v>-0.009088626759000198</v>
+        <v>-0.006795726593972605</v>
       </c>
       <c r="D36">
-        <v>0.03067954720817793</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03993519221082118</v>
+      </c>
+      <c r="E36">
+        <v>0.01659580623793698</v>
+      </c>
+      <c r="F36">
+        <v>0.01555790739343463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0007690966175288115</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006006597650912944</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002418890340422252</v>
+      </c>
+      <c r="E37">
+        <v>-0.0008644612649244815</v>
+      </c>
+      <c r="F37">
+        <v>0.0006836699442043756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0007125495496483046</v>
+        <v>0.0004212880895065814</v>
       </c>
       <c r="C38">
-        <v>7.46681640290452e-05</v>
+        <v>0.000149721128471415</v>
       </c>
       <c r="D38">
-        <v>0.001405216796893427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007126330260597973</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001138982991107658</v>
+      </c>
+      <c r="F38">
+        <v>-0.0001058293958317187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1264303074413318</v>
+        <v>-0.1041309615547732</v>
       </c>
       <c r="C39">
-        <v>-0.02032277114692984</v>
+        <v>-0.01527196884898553</v>
       </c>
       <c r="D39">
-        <v>0.1417710253199385</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1553058244528615</v>
+      </c>
+      <c r="E39">
+        <v>0.06011586245057146</v>
+      </c>
+      <c r="F39">
+        <v>0.03032692220837331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03259405069588273</v>
+        <v>-0.04105422749679519</v>
       </c>
       <c r="C40">
-        <v>-0.008151402586518124</v>
+        <v>-0.006969003476461267</v>
       </c>
       <c r="D40">
-        <v>-0.01670623775588328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03030657463899462</v>
+      </c>
+      <c r="E40">
+        <v>0.002110558845527054</v>
+      </c>
+      <c r="F40">
+        <v>-0.01573822360375318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02475759778954143</v>
+        <v>-0.02820498203187284</v>
       </c>
       <c r="C41">
-        <v>-0.006764931124174355</v>
+        <v>-0.006933985750779994</v>
       </c>
       <c r="D41">
-        <v>0.0003885599273160744</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01040984146541985</v>
+      </c>
+      <c r="E41">
+        <v>0.01218662757343204</v>
+      </c>
+      <c r="F41">
+        <v>-0.006052373264453152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03714055863710305</v>
+        <v>-0.04082031498101949</v>
       </c>
       <c r="C43">
-        <v>-0.007996092121840331</v>
+        <v>-0.007006155213433716</v>
       </c>
       <c r="D43">
-        <v>0.008528650936565288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01886129099662152</v>
+      </c>
+      <c r="E43">
+        <v>0.02526969036397329</v>
+      </c>
+      <c r="F43">
+        <v>-0.01225829452845096</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0903800868550363</v>
+        <v>-0.07942193820803427</v>
       </c>
       <c r="C44">
-        <v>-0.02319737961857302</v>
+        <v>-0.01908343874831539</v>
       </c>
       <c r="D44">
-        <v>0.0675756548848712</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09793488155432392</v>
+      </c>
+      <c r="E44">
+        <v>0.06204623410740568</v>
+      </c>
+      <c r="F44">
+        <v>0.1550016342346668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01542614393134967</v>
+        <v>-0.02354935892691209</v>
       </c>
       <c r="C46">
-        <v>-0.004188566376333345</v>
+        <v>-0.003348504165287643</v>
       </c>
       <c r="D46">
-        <v>-5.720722503250935e-05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01285006300024632</v>
+      </c>
+      <c r="E46">
+        <v>0.02634151690333576</v>
+      </c>
+      <c r="F46">
+        <v>-0.006562486379230613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05143187219254989</v>
+        <v>-0.05240947167078575</v>
       </c>
       <c r="C47">
-        <v>-0.002907618746688655</v>
+        <v>-0.00332361184481194</v>
       </c>
       <c r="D47">
-        <v>-0.002452498104786401</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01382054846024163</v>
+      </c>
+      <c r="E47">
+        <v>0.02345324703917845</v>
+      </c>
+      <c r="F47">
+        <v>-0.03155198285978533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04687119645943565</v>
+        <v>-0.05019104815635474</v>
       </c>
       <c r="C48">
-        <v>-0.004470446628606329</v>
+        <v>-0.002023692265440016</v>
       </c>
       <c r="D48">
-        <v>0.03758631564760397</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05053760870057268</v>
+      </c>
+      <c r="E48">
+        <v>-0.00468580084457781</v>
+      </c>
+      <c r="F48">
+        <v>0.009989837495894037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1970229164902853</v>
+        <v>-0.2003744738232196</v>
       </c>
       <c r="C49">
-        <v>-0.01343508495043259</v>
+        <v>-0.01861682070896963</v>
       </c>
       <c r="D49">
-        <v>0.00333125318984301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006000460056518905</v>
+      </c>
+      <c r="E49">
+        <v>0.03113960859049409</v>
+      </c>
+      <c r="F49">
+        <v>0.03846144949934312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05132762619992201</v>
+        <v>-0.05124253478241781</v>
       </c>
       <c r="C50">
-        <v>-0.01075092083361251</v>
+        <v>-0.01105875513382249</v>
       </c>
       <c r="D50">
-        <v>0.01652041727492963</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02475733844069014</v>
+      </c>
+      <c r="E50">
+        <v>0.03008107038505727</v>
+      </c>
+      <c r="F50">
+        <v>0.009597120792861718</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1600587878597134</v>
+        <v>-0.1474820804351385</v>
       </c>
       <c r="C52">
-        <v>-0.01231802678294753</v>
+        <v>-0.01671800989964901</v>
       </c>
       <c r="D52">
-        <v>0.05206456588145108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04319060790414747</v>
+      </c>
+      <c r="E52">
+        <v>0.01940371159639705</v>
+      </c>
+      <c r="F52">
+        <v>0.04379077496467117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1716063975385383</v>
+        <v>-0.1711246184078462</v>
       </c>
       <c r="C53">
-        <v>-0.01168491650976586</v>
+        <v>-0.01934724051513093</v>
       </c>
       <c r="D53">
-        <v>0.01863813954267476</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00557981602094964</v>
+      </c>
+      <c r="E53">
+        <v>0.02819124901548886</v>
+      </c>
+      <c r="F53">
+        <v>0.0741069147410931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01968654420055401</v>
+        <v>-0.02098869319724627</v>
       </c>
       <c r="C54">
-        <v>-0.01189878380465421</v>
+        <v>-0.01134111801276998</v>
       </c>
       <c r="D54">
-        <v>0.02262633254728601</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03428859745576</v>
+      </c>
+      <c r="E54">
+        <v>0.02167847501142228</v>
+      </c>
+      <c r="F54">
+        <v>-0.005647017030288595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1185522710421494</v>
+        <v>-0.1142361798670955</v>
       </c>
       <c r="C55">
-        <v>-0.01140003056827054</v>
+        <v>-0.0171424817802657</v>
       </c>
       <c r="D55">
-        <v>0.0127549134645842</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0082294004962953</v>
+      </c>
+      <c r="E55">
+        <v>0.02370678854966893</v>
+      </c>
+      <c r="F55">
+        <v>0.04728880193284082</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1774487458552005</v>
+        <v>-0.1768332195174418</v>
       </c>
       <c r="C56">
-        <v>-0.00990523976444258</v>
+        <v>-0.01726912769905459</v>
       </c>
       <c r="D56">
-        <v>0.0009223979776434797</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001357005234905992</v>
+      </c>
+      <c r="E56">
+        <v>0.03308218151775762</v>
+      </c>
+      <c r="F56">
+        <v>0.05224352257791764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03516865061093009</v>
+        <v>-0.0447939598151636</v>
       </c>
       <c r="C58">
-        <v>-0.006859459858171921</v>
+        <v>0.0005193818367644102</v>
       </c>
       <c r="D58">
-        <v>0.05638386714219282</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07169270793657737</v>
+      </c>
+      <c r="E58">
+        <v>0.0317657365290624</v>
+      </c>
+      <c r="F58">
+        <v>-0.03849641986179323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1624484048100855</v>
+        <v>-0.1683816421799643</v>
       </c>
       <c r="C59">
-        <v>-0.004068364664154703</v>
+        <v>-0.02215526661462721</v>
       </c>
       <c r="D59">
-        <v>-0.233985879970585</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2169703319485113</v>
+      </c>
+      <c r="E59">
+        <v>-0.04598327992852753</v>
+      </c>
+      <c r="F59">
+        <v>-0.03561771744839221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2464936968840508</v>
+        <v>-0.2313070217506725</v>
       </c>
       <c r="C60">
-        <v>0.009931638277287314</v>
+        <v>0.002773836343629339</v>
       </c>
       <c r="D60">
-        <v>0.05617931084766706</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04189480380982168</v>
+      </c>
+      <c r="E60">
+        <v>0.009281179821579871</v>
+      </c>
+      <c r="F60">
+        <v>-0.004851305830832722</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09853750797098565</v>
+        <v>-0.08028339833235176</v>
       </c>
       <c r="C61">
-        <v>-0.01423907677318491</v>
+        <v>-0.01104855332916773</v>
       </c>
       <c r="D61">
-        <v>0.09351703906394176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.118008479741817</v>
+      </c>
+      <c r="E61">
+        <v>0.03973427407780337</v>
+      </c>
+      <c r="F61">
+        <v>0.01334114368709077</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1723934853500815</v>
+        <v>-0.1694997694562971</v>
       </c>
       <c r="C62">
-        <v>-0.01415600717439467</v>
+        <v>-0.02025498200298603</v>
       </c>
       <c r="D62">
-        <v>0.005180993372563008</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006272606076021251</v>
+      </c>
+      <c r="E62">
+        <v>0.03357143149869714</v>
+      </c>
+      <c r="F62">
+        <v>0.03602096574630038</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04893376944736685</v>
+        <v>-0.04599141597089798</v>
       </c>
       <c r="C63">
-        <v>-0.004731747683327849</v>
+        <v>-0.001709828736993034</v>
       </c>
       <c r="D63">
-        <v>0.03749952332571778</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0585803707492359</v>
+      </c>
+      <c r="E63">
+        <v>0.02300851287940422</v>
+      </c>
+      <c r="F63">
+        <v>0.00316120867248966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1040565790582382</v>
+        <v>-0.1102219123627343</v>
       </c>
       <c r="C64">
-        <v>-0.01144184512791876</v>
+        <v>-0.01114467811516337</v>
       </c>
       <c r="D64">
-        <v>0.02032050566235458</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0440246617643</v>
+      </c>
+      <c r="E64">
+        <v>0.02200336625572006</v>
+      </c>
+      <c r="F64">
+        <v>0.02615483258874144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1320078002885317</v>
+        <v>-0.1498405728123763</v>
       </c>
       <c r="C65">
-        <v>-0.02881191308326385</v>
+        <v>-0.03365185254359769</v>
       </c>
       <c r="D65">
-        <v>-0.02300530010596289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04309489880018092</v>
+      </c>
+      <c r="E65">
+        <v>0.005749067365679191</v>
+      </c>
+      <c r="F65">
+        <v>0.03978666115031761</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.150273790621377</v>
+        <v>-0.123622501069798</v>
       </c>
       <c r="C66">
-        <v>-0.01704848096531092</v>
+        <v>-0.01316804051337535</v>
       </c>
       <c r="D66">
-        <v>0.1299622328403542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1431605589279113</v>
+      </c>
+      <c r="E66">
+        <v>0.06580705112685571</v>
+      </c>
+      <c r="F66">
+        <v>0.03431675599957053</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05867442135835441</v>
+        <v>-0.05764555745266803</v>
       </c>
       <c r="C67">
-        <v>-0.003437894982857224</v>
+        <v>-0.002694220300911891</v>
       </c>
       <c r="D67">
-        <v>0.0450308617313016</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05609656083484214</v>
+      </c>
+      <c r="E67">
+        <v>0.01656338446162244</v>
+      </c>
+      <c r="F67">
+        <v>-0.03136372629672843</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1027484741917016</v>
+        <v>-0.1168123072910776</v>
       </c>
       <c r="C68">
-        <v>-0.01531446917542886</v>
+        <v>-0.0326614682785523</v>
       </c>
       <c r="D68">
-        <v>-0.2558009150838567</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2604395627568084</v>
+      </c>
+      <c r="E68">
+        <v>-0.08681170184751748</v>
+      </c>
+      <c r="F68">
+        <v>0.004194113637273359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03746006332448452</v>
+        <v>-0.03940707029666289</v>
       </c>
       <c r="C69">
-        <v>-0.0002138087422211022</v>
+        <v>-0.001196030040702987</v>
       </c>
       <c r="D69">
-        <v>0.007261179408797796</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007958505329228916</v>
+      </c>
+      <c r="E69">
+        <v>0.02355971101136716</v>
+      </c>
+      <c r="F69">
+        <v>0.0007721939681639809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05608343820529468</v>
+        <v>-0.06613072956638591</v>
       </c>
       <c r="C70">
-        <v>0.02509506595447006</v>
+        <v>0.0276413922760217</v>
       </c>
       <c r="D70">
-        <v>-0.03353226283983446</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02399074720626621</v>
+      </c>
+      <c r="E70">
+        <v>-0.03401206448690474</v>
+      </c>
+      <c r="F70">
+        <v>-0.1840744906539977</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1173275805947171</v>
+        <v>-0.1367269310702267</v>
       </c>
       <c r="C71">
-        <v>-0.01926811090161484</v>
+        <v>-0.03701512739076713</v>
       </c>
       <c r="D71">
-        <v>-0.273187255036704</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2720692131012772</v>
+      </c>
+      <c r="E71">
+        <v>-0.09732975578162976</v>
+      </c>
+      <c r="F71">
+        <v>0.009334127325462679</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1387412001566592</v>
+        <v>-0.1426554613864974</v>
       </c>
       <c r="C72">
-        <v>-0.02237564595555606</v>
+        <v>-0.02681916046210163</v>
       </c>
       <c r="D72">
-        <v>-0.002153057764269495</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002602457543988991</v>
+      </c>
+      <c r="E72">
+        <v>0.03652803760506937</v>
+      </c>
+      <c r="F72">
+        <v>0.03195028128451779</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2001613407178222</v>
+        <v>-0.2036881385427007</v>
       </c>
       <c r="C73">
-        <v>-0.006923966195517277</v>
+        <v>-0.01249515633426319</v>
       </c>
       <c r="D73">
-        <v>0.005059499811589392</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01774976640406156</v>
+      </c>
+      <c r="E73">
+        <v>0.06317404606099035</v>
+      </c>
+      <c r="F73">
+        <v>0.03879050251266589</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09540422626895421</v>
+        <v>-0.09494002771408509</v>
       </c>
       <c r="C74">
-        <v>-0.00833503376001383</v>
+        <v>-0.01330627152051273</v>
       </c>
       <c r="D74">
-        <v>0.02221721450995787</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0170782128407903</v>
+      </c>
+      <c r="E74">
+        <v>0.04364178385280734</v>
+      </c>
+      <c r="F74">
+        <v>0.05794328426637671</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1398125510405122</v>
+        <v>-0.1273767651599055</v>
       </c>
       <c r="C75">
-        <v>-0.02321313671194819</v>
+        <v>-0.0279209392953076</v>
       </c>
       <c r="D75">
-        <v>0.02889137322532173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03087664044436086</v>
+      </c>
+      <c r="E75">
+        <v>0.05816222105097013</v>
+      </c>
+      <c r="F75">
+        <v>0.0228607115081585</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07317093694847088</v>
+        <v>-0.08757114386946047</v>
       </c>
       <c r="C77">
-        <v>-0.01387418212056722</v>
+        <v>-0.007957839241033205</v>
       </c>
       <c r="D77">
-        <v>0.1014628791593649</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1113286919413426</v>
+      </c>
+      <c r="E77">
+        <v>0.03776490963081655</v>
+      </c>
+      <c r="F77">
+        <v>0.03629757488056606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1048954346150791</v>
+        <v>-0.09992377206600318</v>
       </c>
       <c r="C78">
-        <v>-0.04269434692330002</v>
+        <v>-0.03916107881034293</v>
       </c>
       <c r="D78">
-        <v>0.09028132510569339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1138013150458407</v>
+      </c>
+      <c r="E78">
+        <v>0.074081492551398</v>
+      </c>
+      <c r="F78">
+        <v>0.04715487867427553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1701739626832073</v>
+        <v>-0.1638035340294171</v>
       </c>
       <c r="C79">
-        <v>-0.01693294467637392</v>
+        <v>-0.02267263589540832</v>
       </c>
       <c r="D79">
-        <v>0.001741061492845753</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01444989439302051</v>
+      </c>
+      <c r="E79">
+        <v>0.04588578068379184</v>
+      </c>
+      <c r="F79">
+        <v>0.01205296089031407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08977957407319608</v>
+        <v>-0.08261797881425451</v>
       </c>
       <c r="C80">
-        <v>0.000287590635946022</v>
+        <v>0.001086621326624931</v>
       </c>
       <c r="D80">
-        <v>0.05149061577245115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05607301813093522</v>
+      </c>
+      <c r="E80">
+        <v>0.03594499478026154</v>
+      </c>
+      <c r="F80">
+        <v>-0.02189944671537853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1238404500159615</v>
+        <v>-0.1194976725048514</v>
       </c>
       <c r="C81">
-        <v>-0.02657104580518982</v>
+        <v>-0.03179911782093878</v>
       </c>
       <c r="D81">
-        <v>0.0408821090408527</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01536322976341592</v>
+      </c>
+      <c r="E81">
+        <v>0.05704523375951265</v>
+      </c>
+      <c r="F81">
+        <v>0.0183608218329085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1681618545008032</v>
+        <v>-0.1657791684136807</v>
       </c>
       <c r="C82">
-        <v>-0.01718746110084707</v>
+        <v>-0.0247342656523999</v>
       </c>
       <c r="D82">
-        <v>0.02850111693905527</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003769022895321527</v>
+      </c>
+      <c r="E82">
+        <v>0.02601071469297473</v>
+      </c>
+      <c r="F82">
+        <v>0.08173594157927284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06995866530961146</v>
+        <v>-0.05860116834191054</v>
       </c>
       <c r="C83">
-        <v>-0.00473568215690274</v>
+        <v>-0.00257390643433028</v>
       </c>
       <c r="D83">
-        <v>0.03123649606894975</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05120664804227814</v>
+      </c>
+      <c r="E83">
+        <v>0.003106523154185789</v>
+      </c>
+      <c r="F83">
+        <v>-0.03065971137893115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0690699184118827</v>
+        <v>-0.05912805345229</v>
       </c>
       <c r="C84">
-        <v>-0.01284342715669778</v>
+        <v>-0.01096385361601908</v>
       </c>
       <c r="D84">
-        <v>0.05515549021185392</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06389023671729847</v>
+      </c>
+      <c r="E84">
+        <v>0.007270064531838487</v>
+      </c>
+      <c r="F84">
+        <v>0.005474719015905676</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1385458228737142</v>
+        <v>-0.1354339603806717</v>
       </c>
       <c r="C85">
-        <v>-0.02351670393409696</v>
+        <v>-0.02790576979659988</v>
       </c>
       <c r="D85">
-        <v>0.01930352378786607</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009812153692152544</v>
+      </c>
+      <c r="E85">
+        <v>0.03627869085556486</v>
+      </c>
+      <c r="F85">
+        <v>0.0478637880754933</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09364191735816342</v>
+        <v>-0.09509060259363201</v>
       </c>
       <c r="C86">
-        <v>0.000753820560013884</v>
+        <v>0.005450037982157166</v>
       </c>
       <c r="D86">
-        <v>-0.04296563799100577</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04124874182598617</v>
+      </c>
+      <c r="E86">
+        <v>0.2298997293655186</v>
+      </c>
+      <c r="F86">
+        <v>-0.904272390453921</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1073724053977302</v>
+        <v>-0.09451087311184915</v>
       </c>
       <c r="C87">
-        <v>-0.02464574622129441</v>
+        <v>-0.01903474798282729</v>
       </c>
       <c r="D87">
-        <v>0.05501859805811428</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09424826293845054</v>
+      </c>
+      <c r="E87">
+        <v>-0.05315209185517477</v>
+      </c>
+      <c r="F87">
+        <v>0.04689016776077707</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05575502129582649</v>
+        <v>-0.06083624029053544</v>
       </c>
       <c r="C88">
-        <v>-0.004567329400212101</v>
+        <v>-0.002158194471811712</v>
       </c>
       <c r="D88">
-        <v>0.04194412066031124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0494971607938003</v>
+      </c>
+      <c r="E88">
+        <v>0.02401114374605818</v>
+      </c>
+      <c r="F88">
+        <v>0.01394616378804411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1191513200995103</v>
+        <v>-0.1308568158406694</v>
       </c>
       <c r="C89">
-        <v>0.002803260450761478</v>
+        <v>-0.01356449553347756</v>
       </c>
       <c r="D89">
-        <v>-0.2819172788049921</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2468182681440437</v>
+      </c>
+      <c r="E89">
+        <v>-0.08900853909791358</v>
+      </c>
+      <c r="F89">
+        <v>-0.008937101184497793</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1286720293089876</v>
+        <v>-0.1515403548803489</v>
       </c>
       <c r="C90">
-        <v>-0.01597867552132646</v>
+        <v>-0.03372529796601444</v>
       </c>
       <c r="D90">
-        <v>-0.2743394271351899</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.270235406970334</v>
+      </c>
+      <c r="E90">
+        <v>-0.1129453138157398</v>
+      </c>
+      <c r="F90">
+        <v>-0.007697043159043783</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1182910262012435</v>
+        <v>-0.1207046033740238</v>
       </c>
       <c r="C91">
-        <v>-0.01311785200431921</v>
+        <v>-0.01953295047228904</v>
       </c>
       <c r="D91">
-        <v>-0.009954630903201846</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0143537215592502</v>
+      </c>
+      <c r="E91">
+        <v>0.05538441421107537</v>
+      </c>
+      <c r="F91">
+        <v>-0.0004650036491016715</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1390728603239</v>
+        <v>-0.1487532464937798</v>
       </c>
       <c r="C92">
-        <v>-0.004841724169589508</v>
+        <v>-0.0246125951402613</v>
       </c>
       <c r="D92">
-        <v>-0.3051872867672723</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2913047949912669</v>
+      </c>
+      <c r="E92">
+        <v>-0.1013902475096602</v>
+      </c>
+      <c r="F92">
+        <v>-0.01307912700966337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1298779877150068</v>
+        <v>-0.1521816832952488</v>
       </c>
       <c r="C93">
-        <v>-0.01144688282635373</v>
+        <v>-0.02888256338035578</v>
       </c>
       <c r="D93">
-        <v>-0.2634788424808622</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2666983622902268</v>
+      </c>
+      <c r="E93">
+        <v>-0.07876186511173526</v>
+      </c>
+      <c r="F93">
+        <v>0.002840607090818473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1379762646141891</v>
+        <v>-0.1280956302129874</v>
       </c>
       <c r="C94">
-        <v>-0.01998838934116441</v>
+        <v>-0.02429743055905193</v>
       </c>
       <c r="D94">
-        <v>0.04638768063296477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04231803104899641</v>
+      </c>
+      <c r="E94">
+        <v>0.05712080490809016</v>
+      </c>
+      <c r="F94">
+        <v>0.03654944912678445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1204581628023865</v>
+        <v>-0.1263817614226128</v>
       </c>
       <c r="C95">
-        <v>-0.008392900473316565</v>
+        <v>-0.002884019929043472</v>
       </c>
       <c r="D95">
-        <v>0.07291036837977648</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09514231089366999</v>
+      </c>
+      <c r="E95">
+        <v>0.04936867377065494</v>
+      </c>
+      <c r="F95">
+        <v>-0.005490689877523746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.07982483569314222</v>
+        <v>-0.1075328290932829</v>
       </c>
       <c r="C96">
-        <v>0.9915296113084663</v>
+        <v>0.9872697974126474</v>
       </c>
       <c r="D96">
-        <v>-0.00433284269394962</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05145314854123999</v>
+      </c>
+      <c r="E96">
+        <v>0.05343489922631216</v>
+      </c>
+      <c r="F96">
+        <v>0.04240537079559148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1787970168132196</v>
+        <v>-0.1918894614860228</v>
       </c>
       <c r="C97">
-        <v>0.01211562557387841</v>
+        <v>0.007040402910422429</v>
       </c>
       <c r="D97">
-        <v>-0.04726065917378545</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01903222589644219</v>
+      </c>
+      <c r="E97">
+        <v>0.02077830339080017</v>
+      </c>
+      <c r="F97">
+        <v>-0.09396737989123424</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1978143353796369</v>
+        <v>-0.2056337113743398</v>
       </c>
       <c r="C98">
-        <v>-0.003155268140713768</v>
+        <v>-0.006740051880020193</v>
       </c>
       <c r="D98">
-        <v>-0.01396750375293249</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01288994755652775</v>
+      </c>
+      <c r="E98">
+        <v>-0.07837548999971081</v>
+      </c>
+      <c r="F98">
+        <v>-0.09433334608780503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05238763322927623</v>
+        <v>-0.05448499050371809</v>
       </c>
       <c r="C99">
-        <v>0.003901121653760485</v>
+        <v>0.00473077908198383</v>
       </c>
       <c r="D99">
-        <v>0.02428919856487416</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04010677940823418</v>
+      </c>
+      <c r="E99">
+        <v>0.02260102923895558</v>
+      </c>
+      <c r="F99">
+        <v>0.002245088286855284</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1421681994245369</v>
+        <v>-0.1266629572319408</v>
       </c>
       <c r="C100">
-        <v>0.03703733247634886</v>
+        <v>0.05416232185185754</v>
       </c>
       <c r="D100">
-        <v>0.4386982543280268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3468979954494565</v>
+      </c>
+      <c r="E100">
+        <v>-0.8856597261582335</v>
+      </c>
+      <c r="F100">
+        <v>-0.1585196602909688</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02436622361961453</v>
+        <v>-0.02864291093533573</v>
       </c>
       <c r="C101">
-        <v>-0.009789575449045382</v>
+        <v>-0.008687684019232193</v>
       </c>
       <c r="D101">
-        <v>0.01870227983725394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03068415210462344</v>
+      </c>
+      <c r="E101">
+        <v>0.01333062580236871</v>
+      </c>
+      <c r="F101">
+        <v>-0.01452350217393423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
